--- a/ExcelFiles/login_data.xlsx
+++ b/ExcelFiles/login_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProject_Cyclos_Team1-1\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProject_Cyclos_Team1_Pytest-1\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73815934-128E-44DD-A174-D88C47AB7E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01BDBB-DA47-406F-B71D-53FFE70B46EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Sand@123</t>
   </si>
@@ -74,54 +74,12 @@
     <t xml:space="preserve">  abc</t>
   </si>
   <si>
-    <t>${login}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${email} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${website} </t>
-  </si>
-  <si>
     <t>abc12345</t>
   </si>
   <si>
     <t>www.google.com</t>
   </si>
   <si>
-    <t>${name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${gender} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${mobile} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${land_line} </t>
-  </si>
-  <si>
-    <t>${address}</t>
-  </si>
-  <si>
-    <t>${zip}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${city} </t>
-  </si>
-  <si>
-    <t>${region}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${password} </t>
-  </si>
-  <si>
-    <t>${confirm_password}</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>(201) 555-0123</t>
   </si>
   <si>
@@ -150,6 +108,48 @@
   </si>
   <si>
     <t>sandhiya110902@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>land_line</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>confirm_password</t>
+  </si>
+  <si>
+    <t>zip1</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -194,12 +194,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,113 +526,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64E1AF-B64A-4B3C-BD19-9A98FDB28A22}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>9856743210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2">
+        <v>637503</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>9856743210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>637503</v>
-      </c>
       <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D2D43A7C-8E90-4F49-8E75-398C17D4BF47}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{B94A7252-DFE6-4BB4-A9C8-1F99B19664E7}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{76C8326E-C84B-4A3E-9B53-680B6B93DF73}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{B94A7252-DFE6-4BB4-A9C8-1F99B19664E7}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{76C8326E-C84B-4A3E-9B53-680B6B93DF73}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{5EDE5545-EFBB-424D-A276-501A562F7F69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,18 +632,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AAE4BB-23F8-4DC4-8253-050E3A8F1738}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
@@ -665,94 +652,88 @@
     <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>9856743210</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>637503</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{190E00DA-A976-45E7-93D6-79B0F5A724D6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{190E00DA-A976-45E7-93D6-79B0F5A724D6}"/>
     <hyperlink ref="K2" r:id="rId2" display="abc@123" xr:uid="{9F94E111-56E2-460B-B0F7-C97B13C7806C}"/>
     <hyperlink ref="L2" r:id="rId3" xr:uid="{BBF0D27C-0171-4849-8FF9-C46E8B589EF7}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{4294A91F-2202-487D-ACB2-FA5BB6245A90}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{4294A91F-2202-487D-ACB2-FA5BB6245A90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,109 +741,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897AAAF8-CD28-4887-B39B-6EAAFBAB94BD}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="5" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>9856743210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2">
+        <v>637503</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>9856743210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>637503</v>
-      </c>
       <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F07DB1D-55F0-4BAD-AB4A-EE29002173BB}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{426E22AF-B0C1-4942-8A1D-2D244F0DBB2F}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{F44D058D-49F3-4EFF-ACB0-358F30C21AD5}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{426E22AF-B0C1-4942-8A1D-2D244F0DBB2F}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{F44D058D-49F3-4EFF-ACB0-358F30C21AD5}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{710CA2C7-730B-48EF-8A0C-6F1FA1200894}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -871,73 +846,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFDBF8C-E990-465C-AEA0-C79208D80B48}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>9856743210</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>637503</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>9856743210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>637503</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -952,9 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594A082-7D03-46B7-AFEC-B5F0370087A6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -965,19 +931,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1011,9 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DBF35-695C-44A3-AD3A-3B205B2CA974}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1022,13 +986,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,10 +1000,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1054,9 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B9F295-44F1-4B6E-860F-99E1A9E7D4B5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1066,13 +1028,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,10 +1042,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/login_data.xlsx
+++ b/ExcelFiles/login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProject_Cyclos_Team1_Pytest-1\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01BDBB-DA47-406F-B71D-53FFE70B46EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35914D-ECD0-4C42-B1D0-23741FD05518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>Sand@123</t>
   </si>
@@ -41,21 +41,9 @@
     <t>SandhiyaS</t>
   </si>
   <si>
-    <t>${Username}</t>
-  </si>
-  <si>
-    <t>${Password}</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
-    <t>${username}</t>
-  </si>
-  <si>
-    <t>${password}</t>
-  </si>
-  <si>
     <t>sandhiyas</t>
   </si>
   <si>
@@ -150,6 +138,18 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sanjay123</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,10 +492,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -503,15 +503,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -519,6 +527,8 @@
     <hyperlink ref="B2" r:id="rId1" display="Sand@123" xr:uid="{E305B7AC-25BF-49AA-A31A-615A892CFDD0}"/>
     <hyperlink ref="A3" r:id="rId2" display="2k20cse121@kiot.ac.in" xr:uid="{D0B6F42E-8D26-4BBD-91D7-1A207211DBB5}"/>
     <hyperlink ref="B3" r:id="rId3" display="sana@123" xr:uid="{F424A09B-2CFC-435D-BCCD-EF3B4ADF9541}"/>
+    <hyperlink ref="A4" r:id="rId4" display="2k20cse121@kiot.ac.in" xr:uid="{A80D4B55-BD57-4A40-AC74-DA5C92957C32}"/>
+    <hyperlink ref="B4" r:id="rId5" display="Sana@123" xr:uid="{49158DD7-8541-44D8-8FC0-724A70253824}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,78 +555,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>9856743210</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>637503</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AAE4BB-23F8-4DC4-8253-050E3A8F1738}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -654,78 +664,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>9856743210</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>637503</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -759,78 +769,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>9856743210</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>637503</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -864,48 +874,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>9856743210</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>637503</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -931,36 +941,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -986,24 +996,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B9F295-44F1-4B6E-860F-99E1A9E7D4B5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1028,24 +1040,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1058,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D071C-D4BB-4BA4-8801-973517A97F3B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,15 +1084,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1088,14 +1100,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
